--- a/data/feedback-benchmark/model_analysis/gpt-4o-2024-08-06/per_feedback_score_correct.xlsx
+++ b/data/feedback-benchmark/model_analysis/gpt-4o-2024-08-06/per_feedback_score_correct.xlsx
@@ -8,35 +8,32 @@
   </bookViews>
   <sheets>
     <sheet name="gpt-4o-2024-05-13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="yi-large" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="internlm2_5-20b-chat" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="glm-4-0520" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="gpt-4o-mini-2024-07-18" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="gpt-4-turbo-2024-04-09" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="moonshot-v1-32k" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="claude-3-5-sonnet-20240620" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Yi-1.5-9B-Chat" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="ERNIE-4.0-8K-0329" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Mistral-7B-Instruct-v0.3" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="gemma-2-9b-it" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="glm-4-9b-chat" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Qwen2.5-72B-Instruct" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Yi-1.5-9B-Chat-16K" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="internlm2_5-20b-chat" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="glm-4-0520" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="gpt-4o-mini-2024-07-18" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="moonshot-v1-32k" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="claude-3-5-sonnet-20240620" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="yi-lightning" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Yi-1.5-9B-Chat" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ERNIE-4.0-8K-0329" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Ministral-8B-Instruct-2410" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="gemma-2-9b-it" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Mistral-Large-Instruct-2411" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="gpt-4o-2024-11-20" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="glm-4-9b-chat" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Qwen2.5-72B-Instruct" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Yi-1.5-34B-Chat" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="Meta-Llama-3.1-8B-Instruct" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="gemma-2-27b-it" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Qwen2-72B-Instruct" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Phi-3-small-8k-instruct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Mistral-Large-Instruct-2407" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="DeepSeek-V2.5" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="qwen-max-0919" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Qwen2-7B-Instruct" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="internlm2_5-7b-chat" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Qwen2.5-7B-Instruct" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="DeepSeek-Coder-V2-Lite-Instruct" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Meta-Llama-3.1-70B-Instruct" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Yi-1.5-34B-Chat-16K" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Phi-3-medium-4k-instruct" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="phi-4" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="gemma-2-27b-it" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="qwen-max-0919" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="internlm3-8b-instruct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="DeepSeek-V3" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="internlm2_5-7b-chat" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="claude-3-5-sonnet-20241022" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Qwen2.5-7B-Instruct" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Meta-Llama-3.1-70B-Instruct" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Phi-3-medium-4k-instruct" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -491,11 +488,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.78</v>
+        <v>77.08</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>73.78</v>
+        <v>77.08</v>
       </c>
     </row>
     <row r="3">
@@ -505,11 +502,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.13</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>69.13</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -519,11 +516,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.24</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>63.24</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -533,11 +530,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73.97</v>
+        <v>68.19</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>73.97</v>
+        <v>68.19</v>
       </c>
     </row>
     <row r="6">
@@ -547,11 +544,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80.17</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>80.17</v>
+        <v>83.20999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -561,11 +558,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.98</v>
+        <v>68.42</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>66.98</v>
+        <v>68.42</v>
       </c>
     </row>
   </sheetData>
@@ -616,11 +613,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.58</v>
+        <v>43.25</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>64.58</v>
+        <v>43.25</v>
       </c>
     </row>
     <row r="3">
@@ -630,11 +627,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.61</v>
+        <v>55.31</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>68.61</v>
+        <v>55.31</v>
       </c>
     </row>
     <row r="4">
@@ -644,11 +641,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.98</v>
+        <v>68.87</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>70.98</v>
+        <v>68.87</v>
       </c>
     </row>
     <row r="5">
@@ -658,11 +655,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68.23</v>
+        <v>55.74</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>68.23</v>
+        <v>55.74</v>
       </c>
     </row>
     <row r="6">
@@ -672,11 +669,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.58</v>
+        <v>27.68</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>62.58</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="7">
@@ -686,11 +683,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.64</v>
+        <v>47.93</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>65.64</v>
+        <v>47.93</v>
       </c>
     </row>
   </sheetData>
@@ -741,11 +738,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.26</v>
+        <v>50.54</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>48.26</v>
+        <v>50.54</v>
       </c>
     </row>
     <row r="3">
@@ -755,11 +752,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.33</v>
+        <v>52.01</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>44.33</v>
+        <v>52.01</v>
       </c>
     </row>
     <row r="4">
@@ -769,11 +766,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.61</v>
+        <v>66.47</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>27.61</v>
+        <v>66.47</v>
       </c>
     </row>
     <row r="5">
@@ -783,11 +780,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49.36</v>
+        <v>44.19</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>49.36</v>
+        <v>44.19</v>
       </c>
     </row>
     <row r="6">
@@ -797,11 +794,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.83</v>
+        <v>50</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>46.83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -811,11 +808,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.62</v>
+        <v>42.85</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>35.62</v>
+        <v>42.85</v>
       </c>
     </row>
   </sheetData>
@@ -866,11 +863,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55.75</v>
+        <v>62.83</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>55.75</v>
+        <v>62.83</v>
       </c>
     </row>
     <row r="3">
@@ -880,11 +877,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.45</v>
+        <v>63.15</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>60.45</v>
+        <v>63.15</v>
       </c>
     </row>
     <row r="4">
@@ -894,11 +891,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.97</v>
+        <v>78.27</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>60.97</v>
+        <v>78.27</v>
       </c>
     </row>
     <row r="5">
@@ -908,11 +905,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.82</v>
+        <v>64.2</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>52.82</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="6">
@@ -922,11 +919,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.42</v>
+        <v>56.96</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>56.42</v>
+        <v>56.96</v>
       </c>
     </row>
     <row r="7">
@@ -936,11 +933,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.32</v>
+        <v>63.84</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>50.32</v>
+        <v>63.84</v>
       </c>
     </row>
   </sheetData>
@@ -991,11 +988,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.39</v>
+        <v>70.91</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>62.39</v>
+        <v>70.91</v>
       </c>
     </row>
     <row r="3">
@@ -1005,11 +1002,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.13</v>
+        <v>71.19</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>56.13</v>
+        <v>71.19</v>
       </c>
     </row>
     <row r="4">
@@ -1019,11 +1016,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.88</v>
+        <v>82.2</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>41.88</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="5">
@@ -1033,11 +1030,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.69</v>
+        <v>71</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>62.69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1047,11 +1044,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.25</v>
+        <v>62.14</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>60.25</v>
+        <v>62.14</v>
       </c>
     </row>
     <row r="7">
@@ -1061,11 +1058,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.24</v>
+        <v>69.91</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>57.24</v>
+        <v>69.91</v>
       </c>
     </row>
   </sheetData>
@@ -1116,11 +1113,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.92</v>
+        <v>49.61</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>66.92</v>
+        <v>49.61</v>
       </c>
     </row>
     <row r="3">
@@ -1130,11 +1127,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.53</v>
+        <v>55.65</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>65.53</v>
+        <v>55.65</v>
       </c>
     </row>
     <row r="4">
@@ -1144,11 +1141,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.15000000000001</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>68.15000000000001</v>
+        <v>64.93000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1158,11 +1155,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.94</v>
+        <v>59.77</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>72.94</v>
+        <v>59.77</v>
       </c>
     </row>
     <row r="6">
@@ -1172,11 +1169,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.42</v>
+        <v>54.29</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>61.42</v>
+        <v>54.29</v>
       </c>
     </row>
     <row r="7">
@@ -1186,11 +1183,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.62</v>
+        <v>54.2</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>63.62</v>
+        <v>54.2</v>
       </c>
     </row>
   </sheetData>
@@ -1241,11 +1238,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.63</v>
+        <v>66.38</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>41.63</v>
+        <v>66.38</v>
       </c>
     </row>
     <row r="3">
@@ -1255,11 +1252,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.47</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>52.47</v>
+        <v>65.18000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1269,11 +1266,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.12</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>35.12</v>
+        <v>83.40000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1283,11 +1280,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.92</v>
+        <v>73.64</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>48.92</v>
+        <v>73.64</v>
       </c>
     </row>
     <row r="6">
@@ -1297,11 +1294,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59</v>
+        <v>44.64</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>59</v>
+        <v>44.64</v>
       </c>
     </row>
     <row r="7">
@@ -1311,11 +1308,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.23</v>
+        <v>65.72</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>41.23</v>
+        <v>65.72</v>
       </c>
     </row>
   </sheetData>
@@ -1366,11 +1363,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.21</v>
+        <v>41.03</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>53.21</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="3">
@@ -1380,11 +1377,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.45</v>
+        <v>42.73</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>50.45</v>
+        <v>42.73</v>
       </c>
     </row>
     <row r="4">
@@ -1394,11 +1391,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.01</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>54.01</v>
+        <v>64.59999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1408,11 +1405,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.01</v>
+        <v>53.86</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>58.01</v>
+        <v>53.86</v>
       </c>
     </row>
     <row r="6">
@@ -1422,11 +1419,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.92</v>
+        <v>40.36</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>43.92</v>
+        <v>40.36</v>
       </c>
     </row>
     <row r="7">
@@ -1436,11 +1433,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.6</v>
+        <v>43.82</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>46.6</v>
+        <v>43.82</v>
       </c>
     </row>
   </sheetData>
@@ -1491,11 +1488,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.75</v>
+        <v>49.63</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>48.75</v>
+        <v>49.63</v>
       </c>
     </row>
     <row r="3">
@@ -1505,11 +1502,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.44</v>
+        <v>45.69</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>45.44</v>
+        <v>45.69</v>
       </c>
     </row>
     <row r="4">
@@ -1519,11 +1516,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34.42</v>
+        <v>54.07</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>34.42</v>
+        <v>54.07</v>
       </c>
     </row>
     <row r="5">
@@ -1533,11 +1530,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.27</v>
+        <v>54.35</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>52.27</v>
+        <v>54.35</v>
       </c>
     </row>
     <row r="6">
@@ -1547,11 +1544,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.17</v>
+        <v>37.86</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>30.17</v>
+        <v>37.86</v>
       </c>
     </row>
     <row r="7">
@@ -1561,11 +1558,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.3</v>
+        <v>48.06</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>44.3</v>
+        <v>48.06</v>
       </c>
     </row>
   </sheetData>
@@ -1616,11 +1613,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.48</v>
+        <v>52.17</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>56.48</v>
+        <v>52.17</v>
       </c>
     </row>
     <row r="3">
@@ -1630,11 +1627,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.86</v>
+        <v>58.85</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>64.86</v>
+        <v>58.85</v>
       </c>
     </row>
     <row r="4">
@@ -1644,11 +1641,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.68</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>56.68</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1658,11 +1655,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55.63</v>
+        <v>57.16</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>55.63</v>
+        <v>57.16</v>
       </c>
     </row>
     <row r="6">
@@ -1672,11 +1669,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.17</v>
+        <v>57.32</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>53.17</v>
+        <v>57.32</v>
       </c>
     </row>
     <row r="7">
@@ -1686,11 +1683,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.15</v>
+        <v>54.13</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>50.15</v>
+        <v>54.13</v>
       </c>
     </row>
   </sheetData>
@@ -1741,11 +1738,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.11</v>
+        <v>48.2</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>64.11</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="3">
@@ -1755,11 +1752,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.02</v>
+        <v>54.35</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>61.02</v>
+        <v>54.35</v>
       </c>
     </row>
     <row r="4">
@@ -1769,11 +1766,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.55</v>
+        <v>72.67</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>67.55</v>
+        <v>72.67</v>
       </c>
     </row>
     <row r="5">
@@ -1783,11 +1780,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68.91</v>
+        <v>47.84</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>68.91</v>
+        <v>47.84</v>
       </c>
     </row>
     <row r="6">
@@ -1797,11 +1794,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.83</v>
+        <v>63.39</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>61.83</v>
+        <v>63.39</v>
       </c>
     </row>
     <row r="7">
@@ -1811,11 +1808,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.46</v>
+        <v>43.72</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>62.46</v>
+        <v>43.72</v>
       </c>
     </row>
   </sheetData>
@@ -1866,11 +1863,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.03</v>
+        <v>47.42</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>61.03</v>
+        <v>47.42</v>
       </c>
     </row>
     <row r="3">
@@ -1880,11 +1877,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.97</v>
+        <v>48.34</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>69.97</v>
+        <v>48.34</v>
       </c>
     </row>
     <row r="4">
@@ -1894,11 +1891,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.3</v>
+        <v>73.8</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>65.3</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="5">
@@ -1908,11 +1905,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.48999999999999</v>
+        <v>57.7</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>67.48999999999999</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="6">
@@ -1922,11 +1919,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.17</v>
+        <v>45.71</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>64.17</v>
+        <v>45.71</v>
       </c>
     </row>
     <row r="7">
@@ -1936,11 +1933,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.35</v>
+        <v>54.53</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>62.35</v>
+        <v>54.53</v>
       </c>
     </row>
   </sheetData>
@@ -1991,11 +1988,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.04</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>38.04</v>
+        <v>66.70999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -2005,11 +2002,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.46</v>
+        <v>68.92</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>40.46</v>
+        <v>68.92</v>
       </c>
     </row>
     <row r="4">
@@ -2019,11 +2016,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.15</v>
+        <v>84.2</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>31.15</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="5">
@@ -2033,11 +2030,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.69</v>
+        <v>68.64</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>34.69</v>
+        <v>68.64</v>
       </c>
     </row>
     <row r="6">
@@ -2047,11 +2044,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>59.46</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>39</v>
+        <v>59.46</v>
       </c>
     </row>
     <row r="7">
@@ -2061,11 +2058,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.62</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>22.62</v>
+        <v>73.01000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2116,11 +2113,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.55</v>
+        <v>51.85</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>61.55</v>
+        <v>51.85</v>
       </c>
     </row>
     <row r="3">
@@ -2130,11 +2127,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.62</v>
+        <v>55.05</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>69.62</v>
+        <v>55.05</v>
       </c>
     </row>
     <row r="4">
@@ -2144,11 +2141,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.62</v>
+        <v>68.47</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>62.62</v>
+        <v>68.47</v>
       </c>
     </row>
     <row r="5">
@@ -2158,11 +2155,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66.79000000000001</v>
+        <v>54.94</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>66.79000000000001</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="6">
@@ -2172,11 +2169,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.5</v>
+        <v>54.82</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>64.5</v>
+        <v>54.82</v>
       </c>
     </row>
     <row r="7">
@@ -2186,11 +2183,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03</v>
+        <v>46.58</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>64.03</v>
+        <v>46.58</v>
       </c>
     </row>
   </sheetData>
@@ -2241,11 +2238,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71.68000000000001</v>
+        <v>64.98999999999999</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>71.68000000000001</v>
+        <v>64.98999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -2255,11 +2252,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.70999999999999</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>64.70999999999999</v>
+        <v>76.29000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -2269,11 +2266,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.36</v>
+        <v>84.2</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>69.36</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="5">
@@ -2283,11 +2280,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70.31</v>
+        <v>75.23999999999999</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>70.31</v>
+        <v>75.23999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -2297,11 +2294,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.5</v>
+        <v>69.81999999999999</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>64.5</v>
+        <v>69.81999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -2311,11 +2308,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.74</v>
+        <v>75.06</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>61.74</v>
+        <v>75.06</v>
       </c>
     </row>
   </sheetData>
@@ -2366,11 +2363,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.68000000000001</v>
+        <v>47.66</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>68.68000000000001</v>
+        <v>47.66</v>
       </c>
     </row>
     <row r="3">
@@ -2380,11 +2377,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.65000000000001</v>
+        <v>39.55</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>69.65000000000001</v>
+        <v>39.55</v>
       </c>
     </row>
     <row r="4">
@@ -2394,11 +2391,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.89</v>
+        <v>61.2</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>71.89</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="5">
@@ -2408,11 +2405,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71.34999999999999</v>
+        <v>52.29</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>71.34999999999999</v>
+        <v>52.29</v>
       </c>
     </row>
     <row r="6">
@@ -2422,11 +2419,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63</v>
+        <v>37.86</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>63</v>
+        <v>37.86</v>
       </c>
     </row>
     <row r="7">
@@ -2436,11 +2433,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.55</v>
+        <v>38.8</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>70.55</v>
+        <v>38.8</v>
       </c>
     </row>
   </sheetData>
@@ -2491,11 +2488,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.21</v>
+        <v>68.64</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>54.21</v>
+        <v>68.64</v>
       </c>
     </row>
     <row r="3">
@@ -2505,11 +2502,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.83</v>
+        <v>74.17</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>51.83</v>
+        <v>74.17</v>
       </c>
     </row>
     <row r="4">
@@ -2519,11 +2516,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.59</v>
+        <v>67</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>59.59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -2533,11 +2530,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.21</v>
+        <v>74.51000000000001</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>53.21</v>
+        <v>74.51000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -2547,11 +2544,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.33</v>
+        <v>55</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>57.33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -2561,11 +2558,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.53</v>
+        <v>63.91</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>43.53</v>
+        <v>63.91</v>
       </c>
     </row>
   </sheetData>
@@ -2616,11 +2613,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.99</v>
+        <v>51.09</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>52.99</v>
+        <v>51.09</v>
       </c>
     </row>
     <row r="3">
@@ -2630,11 +2627,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.83</v>
+        <v>54.39</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>48.83</v>
+        <v>54.39</v>
       </c>
     </row>
     <row r="4">
@@ -2644,11 +2641,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.78</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>49.78</v>
+        <v>74.06999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -2658,11 +2655,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55.32</v>
+        <v>57.74</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>55.32</v>
+        <v>57.74</v>
       </c>
     </row>
     <row r="6">
@@ -2672,11 +2669,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>35.71</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="7">
@@ -2686,11 +2683,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.15</v>
+        <v>55.25</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>44.15</v>
+        <v>55.25</v>
       </c>
     </row>
   </sheetData>
@@ -2741,11 +2738,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.01</v>
+        <v>47.27</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>57.01</v>
+        <v>47.27</v>
       </c>
     </row>
     <row r="3">
@@ -2755,11 +2752,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.35</v>
+        <v>48.33</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>61.35</v>
+        <v>48.33</v>
       </c>
     </row>
     <row r="4">
@@ -2769,11 +2766,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.02</v>
+        <v>69.67</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>63.02</v>
+        <v>69.67</v>
       </c>
     </row>
     <row r="5">
@@ -2783,11 +2780,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.41</v>
+        <v>56.7</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>58.41</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="6">
@@ -2797,11 +2794,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.42</v>
+        <v>46.43</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>50.42</v>
+        <v>46.43</v>
       </c>
     </row>
     <row r="7">
@@ -2811,11 +2808,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.99</v>
+        <v>53.98</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>50.99</v>
+        <v>53.98</v>
       </c>
     </row>
   </sheetData>
@@ -2866,11 +2863,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.47</v>
+        <v>39.07</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>53.47</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="3">
@@ -2880,11 +2877,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.66</v>
+        <v>50.92</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>56.66</v>
+        <v>50.92</v>
       </c>
     </row>
     <row r="4">
@@ -2894,11 +2891,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.68000000000001</v>
+        <v>56.6</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>68.68000000000001</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="5">
@@ -2908,11 +2905,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.31</v>
+        <v>44.13</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>58.31</v>
+        <v>44.13</v>
       </c>
     </row>
     <row r="6">
@@ -2922,11 +2919,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.25</v>
+        <v>53.21</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>64.25</v>
+        <v>53.21</v>
       </c>
     </row>
     <row r="7">
@@ -2936,261 +2933,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.75</v>
+        <v>32.86</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>50.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>feedback_type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>error_correct_score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>response_maintenance_score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>overall_score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Clarifying Intent</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>56.24</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>56.24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Detailed Explanation</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>64.25</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>64.25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Hinting Guidance</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>56.72</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>56.72</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pointing Out Errors</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>60.72</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>60.72</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Raising Objections</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>45.17</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>45.17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Simple Questioning</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>53.33</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>53.33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>feedback_type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>error_correct_score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>response_maintenance_score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>overall_score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Clarifying Intent</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>50.25</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>50.25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Detailed Explanation</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>49.96</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>49.96</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Hinting Guidance</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>33.73</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>33.73</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pointing Out Errors</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>57.87</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>57.87</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Raising Objections</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>60.33</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>60.33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Simple Questioning</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>42.24</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>42.24</v>
+        <v>32.86</v>
       </c>
     </row>
   </sheetData>
@@ -3241,11 +2988,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63.53</v>
+        <v>58.82</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>63.53</v>
+        <v>58.82</v>
       </c>
     </row>
     <row r="3">
@@ -3255,11 +3002,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.24</v>
+        <v>52.04</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>49.24</v>
+        <v>52.04</v>
       </c>
     </row>
     <row r="4">
@@ -3269,11 +3016,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.23</v>
+        <v>89</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>58.23</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -3283,11 +3030,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59.89</v>
+        <v>60.13</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>59.89</v>
+        <v>60.13</v>
       </c>
     </row>
     <row r="6">
@@ -3297,11 +3044,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.5</v>
+        <v>62.5</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>72.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="7">
@@ -3311,136 +3058,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.09</v>
+        <v>56.39</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>53.09</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>feedback_type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>error_correct_score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>response_maintenance_score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>overall_score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Clarifying Intent</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>41.15</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>41.15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Detailed Explanation</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>46.09</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>46.09</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Hinting Guidance</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>22.02</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pointing Out Errors</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>47.62</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>47.62</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Raising Objections</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>55.42</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>55.42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Simple Questioning</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>29.52</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>29.52</v>
+        <v>56.39</v>
       </c>
     </row>
   </sheetData>
@@ -3491,11 +3113,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.22</v>
+        <v>62.09</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>64.22</v>
+        <v>62.09</v>
       </c>
     </row>
     <row r="3">
@@ -3505,11 +3127,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.25</v>
+        <v>57.76</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>67.25</v>
+        <v>57.76</v>
       </c>
     </row>
     <row r="4">
@@ -3519,11 +3141,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.22</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>73.22</v>
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3533,11 +3155,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.08</v>
+        <v>63.61</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>67.08</v>
+        <v>63.61</v>
       </c>
     </row>
     <row r="6">
@@ -3547,11 +3169,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.08</v>
+        <v>57.68</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>65.08</v>
+        <v>57.68</v>
       </c>
     </row>
     <row r="7">
@@ -3561,11 +3183,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.65000000000001</v>
+        <v>56.77</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>67.65000000000001</v>
+        <v>56.77</v>
       </c>
     </row>
   </sheetData>
@@ -3616,11 +3238,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.97</v>
+        <v>66.83</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>64.97</v>
+        <v>66.83</v>
       </c>
     </row>
     <row r="3">
@@ -3630,11 +3252,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.2</v>
+        <v>60.28</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>69.2</v>
+        <v>60.28</v>
       </c>
     </row>
     <row r="4">
@@ -3644,11 +3266,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.81999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>64.81999999999999</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="5">
@@ -3658,11 +3280,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.95999999999999</v>
+        <v>58.59</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>72.95999999999999</v>
+        <v>58.59</v>
       </c>
     </row>
     <row r="6">
@@ -3672,11 +3294,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.92</v>
+        <v>48.39</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>60.92</v>
+        <v>48.39</v>
       </c>
     </row>
     <row r="7">
@@ -3686,11 +3308,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.39</v>
+        <v>59.73</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>62.39</v>
+        <v>59.73</v>
       </c>
     </row>
   </sheetData>
@@ -3741,11 +3363,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.26000000000001</v>
+        <v>65.05</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>66.26000000000001</v>
+        <v>65.05</v>
       </c>
     </row>
     <row r="3">
@@ -3755,11 +3377,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.65000000000001</v>
+        <v>70.17</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>70.65000000000001</v>
+        <v>70.17</v>
       </c>
     </row>
     <row r="4">
@@ -3769,11 +3391,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.59</v>
+        <v>81</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>69.59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -3783,11 +3405,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.83</v>
+        <v>69.02</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>69.83</v>
+        <v>69.02</v>
       </c>
     </row>
     <row r="6">
@@ -3797,11 +3419,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.67</v>
+        <v>67.31999999999999</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>64.67</v>
+        <v>67.31999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3811,11 +3433,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.01000000000001</v>
+        <v>69</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>69.01000000000001</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3866,11 +3488,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.92</v>
+        <v>67.81</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>61.92</v>
+        <v>67.81</v>
       </c>
     </row>
     <row r="3">
@@ -3880,11 +3502,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.63</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>58.63</v>
+        <v>67.84999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3894,11 +3516,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.77</v>
+        <v>85.8</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>67.77</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="5">
@@ -3908,11 +3530,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.61</v>
+        <v>70.37</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>62.61</v>
+        <v>70.37</v>
       </c>
     </row>
     <row r="6">
@@ -3922,11 +3544,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.92</v>
+        <v>71.25</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>57.92</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="7">
@@ -3936,11 +3558,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.87</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>59.87</v>
+        <v>65.93000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3991,11 +3613,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.86</v>
+        <v>45.9</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>68.86</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="3">
@@ -4005,11 +3627,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.73999999999999</v>
+        <v>38.56</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>81.73999999999999</v>
+        <v>38.56</v>
       </c>
     </row>
     <row r="4">
@@ -4019,11 +3641,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.06999999999999</v>
+        <v>54.53</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>76.06999999999999</v>
+        <v>54.53</v>
       </c>
     </row>
     <row r="5">
@@ -4033,11 +3655,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.52</v>
+        <v>49.72</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>76.52</v>
+        <v>49.72</v>
       </c>
     </row>
     <row r="6">
@@ -4047,11 +3669,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -4061,11 +3683,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.93000000000001</v>
+        <v>36.31</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>70.93000000000001</v>
+        <v>36.31</v>
       </c>
     </row>
   </sheetData>
@@ -4116,11 +3738,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.68</v>
+        <v>57.11</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>57.68</v>
+        <v>57.11</v>
       </c>
     </row>
     <row r="3">
@@ -4130,11 +3752,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.07</v>
+        <v>58.05</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>44.07</v>
+        <v>58.05</v>
       </c>
     </row>
     <row r="4">
@@ -4144,11 +3766,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.41</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>38.41</v>
+        <v>83.40000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4158,11 +3780,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.74</v>
+        <v>59.44</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>52.74</v>
+        <v>59.44</v>
       </c>
     </row>
     <row r="6">
@@ -4172,11 +3794,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51.08</v>
+        <v>59.82</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>51.08</v>
+        <v>59.82</v>
       </c>
     </row>
     <row r="7">
@@ -4186,11 +3808,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.7</v>
+        <v>60.5</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>41.7</v>
+        <v>60.5</v>
       </c>
     </row>
   </sheetData>
